--- a/examples/lista_alumnos_ejemplo.xlsx
+++ b/examples/lista_alumnos_ejemplo.xlsx
@@ -465,7 +465,7 @@
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
-          <t>Aedo Acuña Antonia Valentina</t>
+          <t>Aguilar Soto Emilia Fernanda</t>
         </is>
       </c>
     </row>
@@ -477,7 +477,7 @@
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>Alarcón Llanos Daniela Annaís</t>
+          <t>Benítez Rivas Diego Matías</t>
         </is>
       </c>
     </row>
@@ -489,7 +489,7 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Alarcón Mendoza Sofía Valentina</t>
+          <t>Campos Arriagada Isidora Paz</t>
         </is>
       </c>
     </row>
@@ -501,7 +501,7 @@
       </c>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>Aqueveque Fuentes Javier Alexis</t>
+          <t>Díaz Fuentes Nicolás Alejandro</t>
         </is>
       </c>
     </row>
@@ -513,7 +513,7 @@
       </c>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Aravena Pardo Isis Alexandra</t>
+          <t>Escobar Pardo Antonia Belén</t>
         </is>
       </c>
     </row>
@@ -525,7 +525,7 @@
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>Avilez Placencia Martina Beatriz</t>
+          <t>Fernández Leiva Martina Soledad</t>
         </is>
       </c>
     </row>
@@ -537,7 +537,7 @@
       </c>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Badilla Torres Isidora Belén Minerva</t>
+          <t>González Torres Ignacio Esteban</t>
         </is>
       </c>
     </row>
@@ -549,7 +549,7 @@
       </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>Bianchi Quevedo Mariyna Ignacia</t>
+          <t>Herrera Quezada Camila Valentina</t>
         </is>
       </c>
     </row>
@@ -561,7 +561,7 @@
       </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Bravo Ramírez Florencia Isabel</t>
+          <t>Ibarra Ramírez Florencia Isabel</t>
         </is>
       </c>
     </row>
@@ -573,7 +573,7 @@
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>Campos Veloso Antonella Soleil</t>
+          <t>Jara Veloso Antonella Sofía</t>
         </is>
       </c>
     </row>
@@ -585,7 +585,7 @@
       </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Carrasco Regla Martín Antonio</t>
+          <t>Lagos Regla Martín Alonso</t>
         </is>
       </c>
     </row>
@@ -597,7 +597,7 @@
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>Castillo Leal Jaime Alejandro</t>
+          <t>Martínez Leal Jaime Rodrigo</t>
         </is>
       </c>
     </row>
@@ -609,7 +609,7 @@
       </c>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Castillo Oliva Francisco Javier</t>
+          <t>Navarro Oliva Francisco Javier</t>
         </is>
       </c>
     </row>
@@ -621,7 +621,7 @@
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>Cerpa Navarrete Violeta Almendra</t>
+          <t>Ortega Navarrete Violeta Almendra</t>
         </is>
       </c>
     </row>
@@ -633,7 +633,7 @@
       </c>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Césped Leal Fernando Andrés</t>
+          <t>Pérez Leal Fernando Andrés</t>
         </is>
       </c>
     </row>
@@ -645,7 +645,7 @@
       </c>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>Chamorro Sanhueza Carlos Vicente</t>
+          <t>Quintana Sanhueza Carlos Vicente</t>
         </is>
       </c>
     </row>
@@ -657,7 +657,7 @@
       </c>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Contreras Rubilar Felipe Andrés</t>
+          <t>Ramos Rubilar Felipe Ignacio</t>
         </is>
       </c>
     </row>
@@ -669,7 +669,7 @@
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>Cuevas Gutiérrez Catalina Anaís</t>
+          <t>Salinas Gutiérrez Catalina Anaís</t>
         </is>
       </c>
     </row>
@@ -681,7 +681,7 @@
       </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Fierro Guzmán Paloma Josefa</t>
+          <t>Torres Guzmán Paloma Josefa</t>
         </is>
       </c>
     </row>
@@ -693,7 +693,7 @@
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>Figueroa Vásquez Bastian Nicolás</t>
+          <t>Vega Vásquez Bastián Nicolás</t>
         </is>
       </c>
     </row>
